--- a/biology/Zoologie/Heraclia_(Papillon)/Heraclia_(Papillon).xlsx
+++ b/biology/Zoologie/Heraclia_(Papillon)/Heraclia_(Papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heraclea, Xanthospilopteryx
 Heraclia est un genre de papillons de la famille Noctuidae originaire d'Afrique. Le genre est établi par Jacob Hübner en 1820.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Heraclia abacata (Karsch, 1892)
@@ -558,7 +572,7 @@
 Heraclia poggei (Dewitz, 1879)
 Heraclia superba (Butler, 1875)
 Heraclia terminatis (Walker, 1856)
-Heraclia thruppi (Butler, [1886])
+Heraclia thruppi (Butler, )
 Heraclia viettei Kiriakoff, 1973
 Heraclia xanthopyga (Mabille, 1890)
 Heraclia zenkeri (Karsch, 1895)
